--- a/data/trans_orig/P16A21_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A21_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B73294FB-7A60-41F1-843F-F7BC2AC96516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F148E634-79D2-47E4-849E-DCCC2E1CE9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{006904FE-EEDA-442B-9291-B51D1A1124E2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F5D2712D-4190-46A8-97A3-B9B644E98FD5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="224">
   <si>
     <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -392,319 +392,325 @@
     <t>27,31%</t>
   </si>
   <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
   </si>
   <si>
     <t>40,6%</t>
   </si>
   <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
   </si>
   <si>
     <t>34,78%</t>
   </si>
   <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
   </si>
   <si>
     <t>72,69%</t>
   </si>
   <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
   </si>
   <si>
     <t>59,4%</t>
   </si>
   <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
   </si>
   <si>
     <t>65,22%</t>
   </si>
   <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
   </si>
   <si>
     <t>27,16%</t>
   </si>
   <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
   </si>
   <si>
     <t>39,55%</t>
   </si>
   <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
   </si>
   <si>
     <t>33,59%</t>
   </si>
   <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
   </si>
   <si>
     <t>72,84%</t>
   </si>
   <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
   </si>
   <si>
     <t>60,45%</t>
   </si>
   <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
   </si>
   <si>
     <t>66,41%</t>
   </si>
   <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
   </si>
   <si>
     <t>20,37%</t>
   </si>
   <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
   </si>
   <si>
     <t>38,55%</t>
   </si>
   <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
   </si>
   <si>
     <t>29,55%</t>
   </si>
   <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
   </si>
   <si>
     <t>79,63%</t>
   </si>
   <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
   </si>
   <si>
     <t>61,45%</t>
   </si>
   <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
   </si>
   <si>
     <t>70,45%</t>
   </si>
   <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
   </si>
   <si>
     <t>22,85%</t>
   </si>
   <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
   </si>
   <si>
     <t>44,92%</t>
   </si>
   <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
   </si>
   <si>
     <t>34,89%</t>
   </si>
   <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
   </si>
   <si>
     <t>77,15%</t>
   </si>
   <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
   </si>
   <si>
     <t>55,08%</t>
   </si>
   <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
   </si>
   <si>
     <t>65,11%</t>
   </si>
   <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
   </si>
   <si>
     <t>24,38%</t>
   </si>
   <si>
-    <t>21,92%</t>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
   </si>
   <si>
     <t>39,76%</t>
   </si>
   <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
   </si>
   <si>
     <t>32,73%</t>
   </si>
   <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
   </si>
   <si>
     <t>75,62%</t>
   </si>
   <si>
-    <t>78,08%</t>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
   </si>
   <si>
     <t>60,24%</t>
   </si>
   <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
   </si>
   <si>
     <t>67,27%</t>
   </si>
   <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
   </si>
   <si>
     <t>23,36%</t>
   </si>
   <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
   </si>
   <si>
     <t>40,61%</t>
   </si>
   <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
   </si>
   <si>
     <t>32,48%</t>
   </si>
   <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
   </si>
   <si>
     <t>76,64%</t>
   </si>
   <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
   </si>
   <si>
     <t>59,39%</t>
   </si>
   <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
   </si>
   <si>
     <t>67,52%</t>
   </si>
   <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB41AC4-B258-449C-9E94-EEC22413A6B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE06C7C9-5D13-4634-A91C-1B966B9DE9AA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2179,7 +2185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31D0583-7A8B-40F7-88A9-74699AF5C860}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F792639D-AD15-4388-8FB4-672DA506FA97}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3242,7 +3248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C34B527-2F5B-4C71-BAB8-FFB628EA9158}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08270B7F-53CA-492C-8022-2BF1B1163645}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4305,7 +4311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574AE82D-7C2A-4997-A0FD-0399E07066E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B70A53-999B-441D-BE41-FA741828474A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5055,7 +5061,7 @@
         <v>189</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="H16" s="7">
         <v>672</v>
@@ -5064,13 +5070,13 @@
         <v>455796</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>937</v>
@@ -5079,13 +5085,13 @@
         <v>691134</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,13 +5106,13 @@
         <v>730065</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H17" s="7">
         <v>887</v>
@@ -5115,13 +5121,13 @@
         <v>690507</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M17" s="7">
         <v>1628</v>
@@ -5130,13 +5136,13 @@
         <v>1420572</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5204,13 +5210,13 @@
         <v>790501</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H19" s="7">
         <v>2292</v>
@@ -5219,13 +5225,13 @@
         <v>1544305</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M19" s="7">
         <v>3165</v>
@@ -5234,13 +5240,13 @@
         <v>2334807</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5255,13 +5261,13 @@
         <v>2593657</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H20" s="7">
         <v>3068</v>
@@ -5270,28 +5276,28 @@
         <v>2258913</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M20" s="7">
         <v>5570</v>
       </c>
       <c r="N20" s="7">
-        <v>4852568</v>
+        <v>4852569</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,7 +5339,7 @@
         <v>8735</v>
       </c>
       <c r="N21" s="7">
-        <v>7187375</v>
+        <v>7187376</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A21_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A21_2023-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F148E634-79D2-47E4-849E-DCCC2E1CE9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ED1C171-4393-4CB4-8F41-EE09DE3C239F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F5D2712D-4190-46A8-97A3-B9B644E98FD5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{120CCD92-820E-48EB-872F-29C86A44E71B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -107,7 +107,7 @@
     <t>98,21%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,57%</t>
@@ -128,7 +128,7 @@
     <t>99,67%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,37%</t>
@@ -149,7 +149,7 @@
     <t>99,78%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,5%</t>
@@ -299,7 +299,7 @@
     <t>99,93%</t>
   </si>
   <si>
-    <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2015 (Tasa respuesta: 43,19%)</t>
+    <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2016 (Tasa respuesta: 43,19%)</t>
   </si>
   <si>
     <t>3,42%</t>
@@ -1122,7 +1122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE06C7C9-5D13-4634-A91C-1B966B9DE9AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607F0087-456A-497D-B167-FD72023CDDCE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2185,7 +2185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F792639D-AD15-4388-8FB4-672DA506FA97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB4AAF6-C956-42FE-842D-040B2E72A29D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3248,7 +3248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08270B7F-53CA-492C-8022-2BF1B1163645}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EEB8939-CA25-47B3-A6E2-0DD5DD901947}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4311,7 +4311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B70A53-999B-441D-BE41-FA741828474A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AA0A4F-0F5A-48DF-AC7E-3B0C459A6CE7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16A21_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A21_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ED1C171-4393-4CB4-8F41-EE09DE3C239F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E20817B4-290F-46E9-9AC4-E37A4B16689B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{120CCD92-820E-48EB-872F-29C86A44E71B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3E692F62-2E02-46DF-92AF-CE535D72276D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="222">
   <si>
     <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -392,325 +392,319 @@
     <t>27,31%</t>
   </si>
   <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
   </si>
   <si>
     <t>40,6%</t>
   </si>
   <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
   </si>
   <si>
     <t>34,78%</t>
   </si>
   <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
   </si>
   <si>
     <t>72,69%</t>
   </si>
   <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
   </si>
   <si>
     <t>59,4%</t>
   </si>
   <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
   </si>
   <si>
     <t>65,22%</t>
   </si>
   <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
   </si>
   <si>
     <t>27,16%</t>
   </si>
   <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
   </si>
   <si>
     <t>39,55%</t>
   </si>
   <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
   </si>
   <si>
     <t>33,59%</t>
   </si>
   <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
   </si>
   <si>
     <t>72,84%</t>
   </si>
   <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
   </si>
   <si>
     <t>60,45%</t>
   </si>
   <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
   </si>
   <si>
     <t>66,41%</t>
   </si>
   <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
   </si>
   <si>
     <t>20,37%</t>
   </si>
   <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
   </si>
   <si>
     <t>38,55%</t>
   </si>
   <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
   </si>
   <si>
     <t>29,55%</t>
   </si>
   <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
   </si>
   <si>
     <t>79,63%</t>
   </si>
   <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
   </si>
   <si>
     <t>61,45%</t>
   </si>
   <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
   </si>
   <si>
     <t>70,45%</t>
   </si>
   <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
   </si>
   <si>
     <t>22,85%</t>
   </si>
   <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
   </si>
   <si>
     <t>44,92%</t>
   </si>
   <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
   </si>
   <si>
     <t>34,89%</t>
   </si>
   <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
   </si>
   <si>
     <t>77,15%</t>
   </si>
   <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
   </si>
   <si>
     <t>55,08%</t>
   </si>
   <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
   </si>
   <si>
     <t>65,11%</t>
   </si>
   <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
   </si>
   <si>
     <t>24,38%</t>
   </si>
   <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
+    <t>21,92%</t>
   </si>
   <si>
     <t>39,76%</t>
   </si>
   <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
   </si>
   <si>
     <t>32,73%</t>
   </si>
   <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
   </si>
   <si>
     <t>75,62%</t>
   </si>
   <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
+    <t>78,08%</t>
   </si>
   <si>
     <t>60,24%</t>
   </si>
   <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
   </si>
   <si>
     <t>67,27%</t>
   </si>
   <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
   </si>
   <si>
     <t>23,36%</t>
   </si>
   <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
   </si>
   <si>
     <t>40,61%</t>
   </si>
   <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
   </si>
   <si>
     <t>32,48%</t>
   </si>
   <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
   </si>
   <si>
     <t>76,64%</t>
   </si>
   <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
   </si>
   <si>
     <t>59,39%</t>
   </si>
   <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
   </si>
   <si>
     <t>67,52%</t>
   </si>
   <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607F0087-456A-497D-B167-FD72023CDDCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B80953-F551-4944-9EA8-1715A001F409}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2185,7 +2179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB4AAF6-C956-42FE-842D-040B2E72A29D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F042183F-EB7B-4B37-982F-E5E20D5C2627}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3248,7 +3242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EEB8939-CA25-47B3-A6E2-0DD5DD901947}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C0F86B-FA55-4D3F-90AC-E62F36CC61B8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4311,7 +4305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AA0A4F-0F5A-48DF-AC7E-3B0C459A6CE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73E25A1-C8F9-49D4-8A3B-570F817D28C8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5061,7 +5055,7 @@
         <v>189</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="H16" s="7">
         <v>672</v>
@@ -5070,13 +5064,13 @@
         <v>455796</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>937</v>
@@ -5085,13 +5079,13 @@
         <v>691134</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,13 +5100,13 @@
         <v>730065</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H17" s="7">
         <v>887</v>
@@ -5121,13 +5115,13 @@
         <v>690507</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M17" s="7">
         <v>1628</v>
@@ -5136,13 +5130,13 @@
         <v>1420572</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5210,13 +5204,13 @@
         <v>790501</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H19" s="7">
         <v>2292</v>
@@ -5225,13 +5219,13 @@
         <v>1544305</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M19" s="7">
         <v>3165</v>
@@ -5240,13 +5234,13 @@
         <v>2334807</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5261,13 +5255,13 @@
         <v>2593657</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H20" s="7">
         <v>3068</v>
@@ -5276,28 +5270,28 @@
         <v>2258913</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M20" s="7">
         <v>5570</v>
       </c>
       <c r="N20" s="7">
-        <v>4852569</v>
+        <v>4852568</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,7 +5333,7 @@
         <v>8735</v>
       </c>
       <c r="N21" s="7">
-        <v>7187376</v>
+        <v>7187375</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A21_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A21_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E20817B4-290F-46E9-9AC4-E37A4B16689B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{275341D7-5A5D-436A-B2E7-CA4500596E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3E692F62-2E02-46DF-92AF-CE535D72276D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3838156B-14E4-4B4A-B237-D13A76FD8C4F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="189">
   <si>
     <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,13 +80,13 @@
     <t>0%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
   </si>
   <si>
     <t>No</t>
@@ -95,90 +95,69 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>96,96%</t>
+    <t>99,52%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
   </si>
   <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
     <t>99,53%</t>
   </si>
   <si>
@@ -209,40 +188,22 @@
     <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2012 (Tasa respuesta: 39,99%)</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
   </si>
   <si>
     <t>0,41%</t>
@@ -302,34 +263,22 @@
     <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2016 (Tasa respuesta: 43,19%)</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
   </si>
   <si>
     <t>0,4%</t>
@@ -389,322 +338,274 @@
     <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
   <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
   </si>
 </sst>
 </file>
@@ -1116,8 +1017,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B80953-F551-4944-9EA8-1715A001F409}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A69B0F0-97C4-4AF8-B1A5-FC3DC831B369}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1285,10 +1186,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>62</v>
+        <v>397</v>
       </c>
       <c r="D5" s="7">
-        <v>69473</v>
+        <v>410208</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1300,10 +1201,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="I5" s="7">
-        <v>39334</v>
+        <v>294191</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1315,10 +1216,10 @@
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>106</v>
+        <v>691</v>
       </c>
       <c r="N5" s="7">
-        <v>108808</v>
+        <v>704398</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -1336,10 +1237,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>62</v>
+        <v>397</v>
       </c>
       <c r="D6" s="7">
-        <v>69473</v>
+        <v>410208</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -1351,10 +1252,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="I6" s="7">
-        <v>39334</v>
+        <v>294191</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1366,10 +1267,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>106</v>
+        <v>691</v>
       </c>
       <c r="N6" s="7">
-        <v>108808</v>
+        <v>704398</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1440,10 +1341,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>335</v>
+        <v>515</v>
       </c>
       <c r="D8" s="7">
-        <v>340735</v>
+        <v>564275</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1455,10 +1356,10 @@
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>250</v>
+        <v>372</v>
       </c>
       <c r="I8" s="7">
-        <v>254856</v>
+        <v>394929</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
@@ -1470,10 +1371,10 @@
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>585</v>
+        <v>887</v>
       </c>
       <c r="N8" s="7">
-        <v>595591</v>
+        <v>959204</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
@@ -1491,10 +1392,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>335</v>
+        <v>515</v>
       </c>
       <c r="D9" s="7">
-        <v>340735</v>
+        <v>564275</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1506,10 +1407,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>250</v>
+        <v>372</v>
       </c>
       <c r="I9" s="7">
-        <v>254856</v>
+        <v>394929</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1521,10 +1422,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>585</v>
+        <v>887</v>
       </c>
       <c r="N9" s="7">
-        <v>595591</v>
+        <v>959204</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1586,7 +1487,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1595,46 +1496,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>515</v>
+        <v>385</v>
       </c>
       <c r="D11" s="7">
-        <v>564275</v>
+        <v>414284</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>372</v>
+        <v>292</v>
       </c>
       <c r="I11" s="7">
-        <v>394929</v>
+        <v>288056</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>887</v>
+        <v>677</v>
       </c>
       <c r="N11" s="7">
-        <v>959204</v>
+        <v>702340</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -1646,10 +1547,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>515</v>
+        <v>385</v>
       </c>
       <c r="D12" s="7">
-        <v>564275</v>
+        <v>414284</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -1661,10 +1562,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>372</v>
+        <v>292</v>
       </c>
       <c r="I12" s="7">
-        <v>394929</v>
+        <v>288056</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1676,10 +1577,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>887</v>
+        <v>677</v>
       </c>
       <c r="N12" s="7">
-        <v>959204</v>
+        <v>702340</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1693,7 +1594,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1711,7 +1612,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1726,7 +1627,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1741,7 +1642,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1750,46 +1651,46 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>385</v>
+        <v>581</v>
       </c>
       <c r="D14" s="7">
-        <v>414284</v>
+        <v>558896</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>292</v>
+        <v>406</v>
       </c>
       <c r="I14" s="7">
-        <v>288056</v>
+        <v>422547</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>677</v>
+        <v>987</v>
       </c>
       <c r="N14" s="7">
-        <v>702340</v>
+        <v>981442</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -1801,10 +1702,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>385</v>
+        <v>581</v>
       </c>
       <c r="D15" s="7">
-        <v>414284</v>
+        <v>558896</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1816,10 +1717,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>292</v>
+        <v>406</v>
       </c>
       <c r="I15" s="7">
-        <v>288056</v>
+        <v>422547</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1831,10 +1732,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>677</v>
+        <v>987</v>
       </c>
       <c r="N15" s="7">
-        <v>702340</v>
+        <v>981442</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1848,7 +1749,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1866,7 +1767,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1881,7 +1782,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1896,7 +1797,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1905,46 +1806,46 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>581</v>
+        <v>1878</v>
       </c>
       <c r="D17" s="7">
-        <v>558896</v>
+        <v>1947662</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>406</v>
+        <v>1364</v>
       </c>
       <c r="I17" s="7">
-        <v>422547</v>
+        <v>1399722</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>987</v>
+        <v>3242</v>
       </c>
       <c r="N17" s="7">
-        <v>981442</v>
+        <v>3347384</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -1956,10 +1857,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>581</v>
+        <v>1878</v>
       </c>
       <c r="D18" s="7">
-        <v>558896</v>
+        <v>1947662</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -1971,10 +1872,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>406</v>
+        <v>1364</v>
       </c>
       <c r="I18" s="7">
-        <v>422547</v>
+        <v>1399722</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1986,10 +1887,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>987</v>
+        <v>3242</v>
       </c>
       <c r="N18" s="7">
-        <v>981442</v>
+        <v>3347384</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -2002,171 +1903,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1878</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1947662</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1364</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1399722</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3242</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3347384</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1878</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1947662</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1364</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1399722</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3242</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3347384</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2179,8 +1924,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F042183F-EB7B-4B37-982F-E5E20D5C2627}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8A56B8-2976-425F-9C0F-62A7A6D04B18}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2196,7 +1941,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2309,7 +2054,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2324,7 +2069,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2339,7 +2084,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,46 +2093,46 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>61</v>
+        <v>329</v>
       </c>
       <c r="D5" s="7">
-        <v>56636</v>
+        <v>334975</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="I5" s="7">
-        <v>33246</v>
+        <v>218325</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>90</v>
+        <v>531</v>
       </c>
       <c r="N5" s="7">
-        <v>89882</v>
+        <v>553300</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2399,10 +2144,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>61</v>
+        <v>329</v>
       </c>
       <c r="D6" s="7">
-        <v>56636</v>
+        <v>334975</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -2414,10 +2159,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="I6" s="7">
-        <v>33246</v>
+        <v>218325</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2429,10 +2174,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>90</v>
+        <v>531</v>
       </c>
       <c r="N6" s="7">
-        <v>89882</v>
+        <v>553300</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -2464,7 +2209,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2479,7 +2224,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2494,7 +2239,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,46 +2248,46 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>268</v>
+        <v>470</v>
       </c>
       <c r="D8" s="7">
-        <v>278339</v>
+        <v>508628</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>173</v>
+        <v>276</v>
       </c>
       <c r="I8" s="7">
-        <v>185080</v>
+        <v>299920</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>441</v>
+        <v>746</v>
       </c>
       <c r="N8" s="7">
-        <v>463418</v>
+        <v>808548</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -2554,10 +2299,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>268</v>
+        <v>470</v>
       </c>
       <c r="D9" s="7">
-        <v>278339</v>
+        <v>508628</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -2569,10 +2314,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>173</v>
+        <v>276</v>
       </c>
       <c r="I9" s="7">
-        <v>185080</v>
+        <v>299920</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2584,10 +2329,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>441</v>
+        <v>746</v>
       </c>
       <c r="N9" s="7">
-        <v>463418</v>
+        <v>808548</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -2619,7 +2364,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2634,7 +2379,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2649,7 +2394,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,46 +2403,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>470</v>
+        <v>368</v>
       </c>
       <c r="D11" s="7">
-        <v>508628</v>
+        <v>396051</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="I11" s="7">
-        <v>299920</v>
+        <v>249926</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>746</v>
+        <v>598</v>
       </c>
       <c r="N11" s="7">
-        <v>808548</v>
+        <v>645977</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -2709,10 +2454,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>470</v>
+        <v>368</v>
       </c>
       <c r="D12" s="7">
-        <v>508628</v>
+        <v>396051</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -2724,10 +2469,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="I12" s="7">
-        <v>299920</v>
+        <v>249926</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2739,10 +2484,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>746</v>
+        <v>598</v>
       </c>
       <c r="N12" s="7">
-        <v>808548</v>
+        <v>645977</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2756,7 +2501,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2774,7 +2519,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2789,7 +2534,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2804,7 +2549,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,46 +2558,46 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>368</v>
+        <v>451</v>
       </c>
       <c r="D14" s="7">
-        <v>396051</v>
+        <v>457117</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="I14" s="7">
-        <v>249926</v>
+        <v>290466</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>598</v>
+        <v>727</v>
       </c>
       <c r="N14" s="7">
-        <v>645977</v>
+        <v>747583</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -2864,10 +2609,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>368</v>
+        <v>451</v>
       </c>
       <c r="D15" s="7">
-        <v>396051</v>
+        <v>457117</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -2879,10 +2624,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="I15" s="7">
-        <v>249926</v>
+        <v>290466</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2894,10 +2639,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>598</v>
+        <v>727</v>
       </c>
       <c r="N15" s="7">
-        <v>645977</v>
+        <v>747583</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -2911,7 +2656,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2929,7 +2674,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2944,7 +2689,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2968,46 +2713,46 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>451</v>
+        <v>1618</v>
       </c>
       <c r="D17" s="7">
-        <v>457117</v>
+        <v>1696771</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>276</v>
+        <v>984</v>
       </c>
       <c r="I17" s="7">
-        <v>290466</v>
+        <v>1058637</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>727</v>
+        <v>2602</v>
       </c>
       <c r="N17" s="7">
-        <v>747583</v>
+        <v>2755408</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -3019,10 +2764,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>451</v>
+        <v>1618</v>
       </c>
       <c r="D18" s="7">
-        <v>457117</v>
+        <v>1696771</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -3034,10 +2779,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>276</v>
+        <v>984</v>
       </c>
       <c r="I18" s="7">
-        <v>290466</v>
+        <v>1058637</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3049,10 +2794,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>727</v>
+        <v>2602</v>
       </c>
       <c r="N18" s="7">
-        <v>747583</v>
+        <v>2755408</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -3065,171 +2810,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1618</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1696771</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>984</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1058638</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
+      <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2602</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2755408</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1618</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1696771</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>984</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1058638</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2602</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2755408</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3242,8 +2831,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C0F86B-FA55-4D3F-90AC-E62F36CC61B8}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49432716-2C55-4ADE-AAAD-AA9488CD1EA7}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3259,7 +2848,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3372,7 +2961,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3387,7 +2976,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3402,7 +2991,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,46 +3000,46 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>55</v>
+        <v>322</v>
       </c>
       <c r="D5" s="7">
-        <v>57524</v>
+        <v>335947</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>36</v>
+        <v>226</v>
       </c>
       <c r="I5" s="7">
-        <v>33014</v>
+        <v>217593</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>91</v>
+        <v>548</v>
       </c>
       <c r="N5" s="7">
-        <v>90539</v>
+        <v>553540</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3462,10 +3051,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>55</v>
+        <v>322</v>
       </c>
       <c r="D6" s="7">
-        <v>57524</v>
+        <v>335947</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -3477,10 +3066,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>36</v>
+        <v>226</v>
       </c>
       <c r="I6" s="7">
-        <v>33014</v>
+        <v>217593</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3492,10 +3081,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>91</v>
+        <v>548</v>
       </c>
       <c r="N6" s="7">
-        <v>90539</v>
+        <v>553540</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3527,7 +3116,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3542,7 +3131,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3557,7 +3146,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,46 +3155,46 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>267</v>
+        <v>484</v>
       </c>
       <c r="D8" s="7">
-        <v>278423</v>
+        <v>522165</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>190</v>
+        <v>355</v>
       </c>
       <c r="I8" s="7">
-        <v>184579</v>
+        <v>361569</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>457</v>
+        <v>839</v>
       </c>
       <c r="N8" s="7">
-        <v>463001</v>
+        <v>883734</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3617,10 +3206,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>267</v>
+        <v>484</v>
       </c>
       <c r="D9" s="7">
-        <v>278423</v>
+        <v>522165</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -3632,10 +3221,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>190</v>
+        <v>355</v>
       </c>
       <c r="I9" s="7">
-        <v>184579</v>
+        <v>361569</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3647,10 +3236,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>457</v>
+        <v>839</v>
       </c>
       <c r="N9" s="7">
-        <v>463001</v>
+        <v>883734</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3682,7 +3271,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3697,7 +3286,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3712,7 +3301,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,46 +3310,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>484</v>
+        <v>370</v>
       </c>
       <c r="D11" s="7">
-        <v>522165</v>
+        <v>406976</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>355</v>
+        <v>297</v>
       </c>
       <c r="I11" s="7">
-        <v>361569</v>
+        <v>303996</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>839</v>
+        <v>667</v>
       </c>
       <c r="N11" s="7">
-        <v>883734</v>
+        <v>710972</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3772,10 +3361,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>484</v>
+        <v>370</v>
       </c>
       <c r="D12" s="7">
-        <v>522165</v>
+        <v>406976</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -3787,10 +3376,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>355</v>
+        <v>297</v>
       </c>
       <c r="I12" s="7">
-        <v>361569</v>
+        <v>303996</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3802,10 +3391,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>839</v>
+        <v>667</v>
       </c>
       <c r="N12" s="7">
-        <v>883734</v>
+        <v>710972</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3819,7 +3408,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3837,7 +3426,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3852,7 +3441,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3867,7 +3456,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,46 +3465,46 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>370</v>
+        <v>434</v>
       </c>
       <c r="D14" s="7">
-        <v>406976</v>
+        <v>439273</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="I14" s="7">
-        <v>303996</v>
+        <v>362767</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>667</v>
+        <v>783</v>
       </c>
       <c r="N14" s="7">
-        <v>710972</v>
+        <v>802040</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3927,10 +3516,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>370</v>
+        <v>434</v>
       </c>
       <c r="D15" s="7">
-        <v>406976</v>
+        <v>439273</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3942,10 +3531,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="I15" s="7">
-        <v>303996</v>
+        <v>362767</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3957,10 +3546,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>667</v>
+        <v>783</v>
       </c>
       <c r="N15" s="7">
-        <v>710972</v>
+        <v>802040</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3974,7 +3563,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3992,7 +3581,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4007,7 +3596,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4022,7 +3611,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,46 +3620,46 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>434</v>
+        <v>1610</v>
       </c>
       <c r="D17" s="7">
-        <v>439273</v>
+        <v>1704362</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>349</v>
+        <v>1227</v>
       </c>
       <c r="I17" s="7">
-        <v>362767</v>
+        <v>1245925</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>783</v>
+        <v>2837</v>
       </c>
       <c r="N17" s="7">
-        <v>802040</v>
+        <v>2950287</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -4082,10 +3671,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>434</v>
+        <v>1610</v>
       </c>
       <c r="D18" s="7">
-        <v>439273</v>
+        <v>1704362</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -4097,10 +3686,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>349</v>
+        <v>1227</v>
       </c>
       <c r="I18" s="7">
-        <v>362767</v>
+        <v>1245925</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4112,10 +3701,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>783</v>
+        <v>2837</v>
       </c>
       <c r="N18" s="7">
-        <v>802040</v>
+        <v>2950287</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -4128,171 +3717,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1610</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1704362</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1227</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1245925</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2837</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2950287</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1610</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1704362</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1227</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1245925</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2837</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2950287</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4305,8 +3738,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73E25A1-C8F9-49D4-8A3B-570F817D28C8}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B041590A-57FC-4A24-AC00-8F8144DB8AD5}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4322,7 +3755,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4423,49 +3856,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c r="D4" s="7">
-        <v>27853</v>
+        <v>171183</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="H4" s="7">
-        <v>115</v>
+        <v>557</v>
       </c>
       <c r="I4" s="7">
-        <v>53080</v>
+        <v>269521</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="M4" s="7">
-        <v>151</v>
+        <v>772</v>
       </c>
       <c r="N4" s="7">
-        <v>80932</v>
+        <v>440705</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,49 +3907,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>82</v>
+        <v>515</v>
       </c>
       <c r="D5" s="7">
-        <v>74129</v>
+        <v>464258</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="H5" s="7">
-        <v>128</v>
+        <v>682</v>
       </c>
       <c r="I5" s="7">
-        <v>77653</v>
+        <v>406231</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="M5" s="7">
-        <v>210</v>
+        <v>1197</v>
       </c>
       <c r="N5" s="7">
-        <v>151783</v>
+        <v>870489</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,10 +3958,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -4540,10 +3973,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1239</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675752</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -4555,10 +3988,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1969</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1311194</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4578,49 +4011,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="D7" s="7">
-        <v>149309</v>
+        <v>203407</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H7" s="7">
-        <v>442</v>
+        <v>647</v>
       </c>
       <c r="I7" s="7">
-        <v>234539</v>
+        <v>374375</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="M7" s="7">
-        <v>621</v>
+        <v>874</v>
       </c>
       <c r="N7" s="7">
-        <v>383848</v>
+        <v>577783</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,49 +4062,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>433</v>
+        <v>737</v>
       </c>
       <c r="D8" s="7">
-        <v>400514</v>
+        <v>989457</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="H8" s="7">
-        <v>554</v>
+        <v>869</v>
       </c>
       <c r="I8" s="7">
-        <v>358423</v>
+        <v>583731</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="M8" s="7">
-        <v>987</v>
+        <v>1606</v>
       </c>
       <c r="N8" s="7">
-        <v>758937</v>
+        <v>1573188</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,10 +4113,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -4695,10 +4128,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>996</v>
+        <v>1516</v>
       </c>
       <c r="I9" s="7">
-        <v>592962</v>
+        <v>958106</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4710,10 +4143,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>1608</v>
+        <v>2480</v>
       </c>
       <c r="N9" s="7">
-        <v>1142785</v>
+        <v>2150971</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4733,49 +4166,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="D10" s="7">
-        <v>211691</v>
+        <v>160632</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="H10" s="7">
-        <v>647</v>
+        <v>416</v>
       </c>
       <c r="I10" s="7">
-        <v>408417</v>
+        <v>464539</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="M10" s="7">
-        <v>874</v>
+        <v>582</v>
       </c>
       <c r="N10" s="7">
-        <v>620108</v>
+        <v>625171</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,49 +4217,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>737</v>
+        <v>509</v>
       </c>
       <c r="D11" s="7">
-        <v>827557</v>
+        <v>543052</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="H11" s="7">
-        <v>869</v>
+        <v>630</v>
       </c>
       <c r="I11" s="7">
-        <v>651057</v>
+        <v>468261</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="M11" s="7">
-        <v>1606</v>
+        <v>1139</v>
       </c>
       <c r="N11" s="7">
-        <v>1478614</v>
+        <v>1011313</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,10 +4268,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>675</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>703684</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -4850,10 +4283,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>1516</v>
+        <v>1046</v>
       </c>
       <c r="I12" s="7">
-        <v>1059474</v>
+        <v>932800</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -4865,10 +4298,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>2480</v>
+        <v>1721</v>
       </c>
       <c r="N12" s="7">
-        <v>2098722</v>
+        <v>1636484</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -4882,55 +4315,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="D13" s="7">
-        <v>166311</v>
+        <v>231677</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="H13" s="7">
-        <v>416</v>
+        <v>672</v>
       </c>
       <c r="I13" s="7">
-        <v>392473</v>
+        <v>413519</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="M13" s="7">
-        <v>582</v>
+        <v>937</v>
       </c>
       <c r="N13" s="7">
-        <v>558784</v>
+        <v>645196</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,49 +4372,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>509</v>
+        <v>741</v>
       </c>
       <c r="D14" s="7">
-        <v>561390</v>
+        <v>695154</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="H14" s="7">
-        <v>630</v>
+        <v>887</v>
       </c>
       <c r="I14" s="7">
-        <v>481273</v>
+        <v>677855</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="M14" s="7">
-        <v>1139</v>
+        <v>1628</v>
       </c>
       <c r="N14" s="7">
-        <v>1042663</v>
+        <v>1373009</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,10 +4423,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>675</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>727701</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -5005,10 +4438,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>1046</v>
+        <v>1559</v>
       </c>
       <c r="I15" s="7">
-        <v>873746</v>
+        <v>1091374</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -5020,10 +4453,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>1721</v>
+        <v>2565</v>
       </c>
       <c r="N15" s="7">
-        <v>1601447</v>
+        <v>2018205</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5037,55 +4470,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>265</v>
+        <v>873</v>
       </c>
       <c r="D16" s="7">
-        <v>235338</v>
+        <v>766900</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="H16" s="7">
-        <v>672</v>
+        <v>2292</v>
       </c>
       <c r="I16" s="7">
-        <v>455796</v>
+        <v>1521954</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="M16" s="7">
-        <v>937</v>
+        <v>3165</v>
       </c>
       <c r="N16" s="7">
-        <v>691134</v>
+        <v>2288854</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,49 +4527,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>741</v>
+        <v>2502</v>
       </c>
       <c r="D17" s="7">
-        <v>730065</v>
+        <v>2691920</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H17" s="7">
-        <v>887</v>
+        <v>3068</v>
       </c>
       <c r="I17" s="7">
-        <v>690507</v>
+        <v>2136079</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="M17" s="7">
-        <v>1628</v>
+        <v>5570</v>
       </c>
       <c r="N17" s="7">
-        <v>1420572</v>
+        <v>4827999</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,10 +4578,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3375</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3458820</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -5160,10 +4593,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>1559</v>
+        <v>5360</v>
       </c>
       <c r="I18" s="7">
-        <v>1146303</v>
+        <v>3658033</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -5175,10 +4608,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>2565</v>
+        <v>8735</v>
       </c>
       <c r="N18" s="7">
-        <v>2111706</v>
+        <v>7116853</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -5191,171 +4624,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>873</v>
-      </c>
-      <c r="D19" s="7">
-        <v>790501</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2292</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1544305</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3165</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2334807</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2502</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2593657</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3068</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2258913</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5570</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4852568</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3375</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3384158</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5360</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3803218</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8735</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7187375</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
